--- a/database/seeders/defaults/data.xlsx
+++ b/database/seeders/defaults/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbaekajnr/Projects/ELECTIONS /proj/server/database/seeders/defaults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbaekajnr/Projects/elections/database/seeders/defaults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2591EDA6-CF9F-0945-A43F-D4FBDA9106DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06751D3F-AA59-AC4B-A0C7-56EC4B1ACCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="16600" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="16600" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constituencies" sheetId="1" r:id="rId1"/>
@@ -1821,9 +1821,6 @@
     <t>Percival Kofi Akpaloo</t>
   </si>
   <si>
-    <t>David Asibi Ayindenaba Akpasera</t>
-  </si>
-  <si>
     <t>Brigitte Akosua Dzogbenuku</t>
   </si>
   <si>
@@ -1885,6 +1882,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>David Asibi Ayindenaba Apasera</t>
   </si>
 </sst>
 </file>
@@ -5223,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B061FAB-B6EE-4043-BE8F-8284D9F6D3D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5236,13 +5236,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" t="s">
         <v>614</v>
-      </c>
-      <c r="B1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5253,7 +5253,7 @@
         <v>590</v>
       </c>
       <c r="C2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5264,7 +5264,7 @@
         <v>591</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
         <v>592</v>
       </c>
       <c r="C4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>594</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
         <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>596</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5330,7 +5330,7 @@
         <v>597</v>
       </c>
       <c r="C9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5338,10 +5338,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="C10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,10 +5349,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5360,10 +5360,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5371,10 +5371,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -5386,7 +5386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5400,16 +5400,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1" t="s">
         <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
